--- a/data/TC01.xlsx
+++ b/data/TC01.xlsx
@@ -27,7 +27,7 @@
     <t>mathan@credosystemz.sanbox</t>
   </si>
   <si>
-    <t>Mylearning$3</t>
+    <t>Mylearning$4</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/TC01.xlsx
+++ b/data/TC01.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>UserName</t>
   </si>
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -394,6 +394,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
